--- a/infra/api_paths.xlsx
+++ b/infra/api_paths.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matsumotonorio/Dropbox/Mac/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matsumotonorio/docker_dev/blog/infra/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6C259F-B409-4147-84E9-D6FA663750CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3108E38-4D35-8F41-9C80-B626146AACEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38900" yWindow="4440" windowWidth="28300" windowHeight="16140" xr2:uid="{3B15AD29-345C-5547-B4CF-9A14D819CCE9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>path</t>
     <phoneticPr fontId="1"/>
@@ -82,7 +82,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>api/tag/</t>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>api/tag</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -467,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A18F6CA-4657-E644-80FD-D9110D290224}">
-  <dimension ref="B2:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -479,68 +483,98 @@
     <col min="2" max="2" width="38.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:3">
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:3">
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>8</v>
+      </c>
       <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>9</v>
+      </c>
       <c r="B10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C10" t="s">
         <v>2</v>
       </c>
     </row>

--- a/infra/api_paths.xlsx
+++ b/infra/api_paths.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matsumotonorio/docker_dev/blog/infra/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matsumotonorio/docker_dev/blog/infra/jinja/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3108E38-4D35-8F41-9C80-B626146AACEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194726F5-329C-AC41-89C9-E5FE9FE76159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38900" yWindow="4440" windowWidth="28300" windowHeight="16140" xr2:uid="{3B15AD29-345C-5547-B4CF-9A14D819CCE9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{3B15AD29-345C-5547-B4CF-9A14D819CCE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>path</t>
     <phoneticPr fontId="1"/>
@@ -87,6 +87,14 @@
   </si>
   <si>
     <t>api/tag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lambda</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blog_lambda</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -471,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A18F6CA-4657-E644-80FD-D9110D290224}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -483,7 +491,7 @@
     <col min="2" max="2" width="38.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -493,8 +501,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -502,7 +513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -510,7 +521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -520,8 +531,11 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -529,7 +543,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -539,8 +553,11 @@
       <c r="C6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -548,7 +565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -558,8 +575,11 @@
       <c r="C8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -567,7 +587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -576,6 +596,9 @@
       </c>
       <c r="C10" t="s">
         <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/infra/api_paths.xlsx
+++ b/infra/api_paths.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matsumotonorio/docker_dev/blog/infra/jinja/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matsumotonorio/docker_dev/blog/infra/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194726F5-329C-AC41-89C9-E5FE9FE76159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935CD2F3-36CC-FB45-AAC9-B54725106B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{3B15AD29-345C-5547-B4CF-9A14D819CCE9}"/>
+    <workbookView xWindow="33220" yWindow="2900" windowWidth="28800" windowHeight="16100" xr2:uid="{3B15AD29-345C-5547-B4CF-9A14D819CCE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>path</t>
     <phoneticPr fontId="1"/>
@@ -78,10 +78,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>api/{year}/{month}/{day}/{title}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -95,6 +91,42 @@
   </si>
   <si>
     <t>blog_lambda</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>api/{year}/{month}/{day}/{post_key}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>api/page/{page_no}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>api/category/{category}/page/{page_no}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>api/tag/{tag}/page/{page_no}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>api/{year}/{month}/page/{page_no}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>api/page</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>api/category/{category}/page</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>api/tag/{tag}/page</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>api/{year}/{month}/page</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -479,21 +511,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A18F6CA-4657-E644-80FD-D9110D290224}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -502,7 +535,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -512,13 +545,19 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -526,13 +565,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -540,7 +579,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -548,13 +587,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -562,7 +601,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -570,13 +609,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -584,7 +623,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -592,13 +631,101 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
         <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/infra/api_paths.xlsx
+++ b/infra/api_paths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matsumotonorio/docker_dev/blog/infra/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935CD2F3-36CC-FB45-AAC9-B54725106B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928C4033-B97A-3945-B6FA-D5371F5AF8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33220" yWindow="2900" windowWidth="28800" windowHeight="16100" xr2:uid="{3B15AD29-345C-5547-B4CF-9A14D819CCE9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>path</t>
     <phoneticPr fontId="1"/>
@@ -54,38 +54,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>api/category</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>api/category/{category}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>api/tag/{tag}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>api/{year}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>api/{year}/{month}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>api/{year}/{month}/{day}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>api/tag</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>lambda</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -94,39 +66,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>api/{year}/{month}/{day}/{post_key}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>api/page/{page_no}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>api/category/{category}/page/{page_no}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>api/tag/{tag}/page/{page_no}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>api/{year}/{month}/page/{page_no}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>api/page</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>api/category/{category}/page</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>api/tag/{tag}/page</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>api/{year}/{month}/page</t>
+    <t>api/blogs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>api/blogs/{post_no}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -511,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A18F6CA-4657-E644-80FD-D9110D290224}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -526,7 +470,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -535,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -545,19 +489,19 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -565,167 +509,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
         <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
